--- a/Ke-hoach-thuc-hien-Do-An.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\FIT\Do An 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Máy tính\HTML\DoAnCNTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA42F1F-878E-42B6-8C5C-62BB90F91617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054DA1C6-10A6-4F89-B331-E5FDE5D3B52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="2" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -121,18 +112,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -663,6 +654,42 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -677,42 +704,6 @@
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -973,18 +964,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thick">
+      <border outline="0">
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
+      <border>
+        <bottom style="thick">
           <color auto="1"/>
         </bottom>
       </border>
@@ -1029,7 +1020,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A7:J28" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A7:J28" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A7:J28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="9"/>
@@ -1312,67 +1303,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="11" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="25.85546875" style="11" customWidth="1"/>
-    <col min="11" max="26" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="30.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.09765625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="25.8984375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="33.09765625" style="11" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="25.8984375" style="11" customWidth="1"/>
+    <col min="11" max="26" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
+    </row>
+    <row r="2" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
       <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-    </row>
-    <row r="3" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
-    </row>
-    <row r="4" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+    </row>
+    <row r="4" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37"/>
       <c r="B4" s="41" t="s">
         <v>4</v>
@@ -1392,7 +1383,7 @@
       <c r="I4" s="38"/>
       <c r="J4" s="39"/>
     </row>
-    <row r="5" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1">
+    <row r="5" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
       <c r="C5" s="42" t="s">
@@ -1402,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="44">
-        <v>19110001</v>
+        <v>19110007</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -1410,7 +1401,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="39"/>
     </row>
-    <row r="6" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1">
+    <row r="6" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -1422,7 +1413,7 @@
       <c r="I6" s="38"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="1:26" s="3" customFormat="1" ht="25.35" customHeight="1">
+    <row r="7" spans="1:26" s="3" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1454,14 +1445,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -1471,13 +1462,13 @@
         <v>18</v>
       </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="59">
+      <c r="G8" s="54">
         <v>44442</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="54">
         <v>44446</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="55">
         <v>44442</v>
       </c>
       <c r="J8" s="35"/>
@@ -1498,14 +1489,14 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="47" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="22" t="s">
@@ -1513,21 +1504,21 @@
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="61">
+      <c r="G9" s="56">
         <v>44447</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="56">
         <v>44450</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="34"/>
     </row>
-    <row r="10" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
       <c r="B10" s="32"/>
-      <c r="C10" s="52"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="23"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1552,12 +1543,12 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
       <c r="B11" s="32"/>
-      <c r="C11" s="52"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="23"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
@@ -1584,12 +1575,12 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>5</v>
       </c>
       <c r="B12" s="32"/>
-      <c r="C12" s="52"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="23"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1598,12 +1589,12 @@
       <c r="I12" s="13"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>6</v>
       </c>
       <c r="B13" s="32"/>
-      <c r="C13" s="52"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="23"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1612,12 +1603,12 @@
       <c r="I13" s="13"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="52"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="22"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13" t="s">
@@ -1644,12 +1635,12 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="24"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
@@ -1674,12 +1665,12 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
       <c r="B16" s="32"/>
-      <c r="C16" s="52"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="23"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1704,12 +1695,12 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
       <c r="B17" s="32"/>
-      <c r="C17" s="52"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="23"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1734,12 +1725,12 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
       <c r="B18" s="32"/>
-      <c r="C18" s="52"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="22"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
@@ -1764,12 +1755,12 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>12</v>
       </c>
       <c r="B19" s="32"/>
-      <c r="C19" s="52"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="22"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
@@ -1778,12 +1769,12 @@
       <c r="I19" s="13"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
       <c r="B20" s="32"/>
-      <c r="C20" s="52"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="23"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
@@ -1810,12 +1801,12 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>14</v>
       </c>
       <c r="B21" s="32"/>
-      <c r="C21" s="52"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="23"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
@@ -1842,12 +1833,12 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>15</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="25"/>
       <c r="E22" s="14"/>
       <c r="F22" s="13" t="s">
@@ -1874,12 +1865,12 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>16</v>
       </c>
       <c r="B23" s="32"/>
-      <c r="C23" s="52"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="23"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
@@ -1906,12 +1897,12 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>17</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="25"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
@@ -1938,12 +1929,12 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" s="8" customFormat="1" ht="19.7" customHeight="1">
+    <row r="25" spans="1:26" s="8" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>18</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="25"/>
       <c r="E25" s="14"/>
       <c r="F25" s="13" t="s">
@@ -1970,12 +1961,12 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>19</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="23"/>
       <c r="E26" s="30"/>
       <c r="F26" s="13"/>
@@ -2000,12 +1991,12 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>20</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="23"/>
       <c r="E27" s="30"/>
       <c r="F27" s="13"/>
@@ -2030,12 +2021,12 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="26"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>

--- a/Ke-hoach-thuc-hien-Do-An.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Máy tính\HTML\DoAnCNTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054DA1C6-10A6-4F89-B331-E5FDE5D3B52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4030E26F-070B-4554-97A0-F74AA7998F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>BẢNG KẾ HOẠCH THỰC HIỆN ĐỒ ÁN</t>
   </si>
@@ -105,7 +105,34 @@
     <t>Xuất thông tin cơ bản và chi tiết</t>
   </si>
   <si>
-    <t>…</t>
+    <t>Code 1 số game phổ biến</t>
+  </si>
+  <si>
+    <t>Tìm ý tưởng và code 1 số game</t>
+  </si>
+  <si>
+    <t>Tạo csdl lưu thông tin người chơi</t>
+  </si>
+  <si>
+    <t>Tạo CSDL lưu thông tin người chơi</t>
+  </si>
+  <si>
+    <t>Kết nối với CSDL</t>
+  </si>
+  <si>
+    <t>Kết nối CSDL với website</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem giao diện, game đã chạy ổn chưa</t>
+  </si>
+  <si>
+    <t>Kiểm thử</t>
+  </si>
+  <si>
+    <t>Chọn đề tài</t>
+  </si>
+  <si>
+    <t>Chọn web game làm đề tài</t>
   </si>
 </sst>
 </file>
@@ -195,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -230,21 +257,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dashed">
         <color auto="1"/>
       </left>
@@ -326,21 +338,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dashed">
         <color auto="1"/>
       </left>
@@ -515,6 +512,15 @@
       <bottom style="dashed">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -522,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -537,12 +543,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -555,88 +555,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -648,62 +645,80 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1020,8 +1035,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A7:J28" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A7:J28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A7:J29" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A7:J29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DANH SÁCH CÔNG VIỆC" dataDxfId="8"/>
@@ -1301,119 +1316,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="9" customWidth="1"/>
+    <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="30.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.09765625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.8984375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="25.8984375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="33.09765625" style="11" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="25.8984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="58.09765625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.8984375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="33.09765625" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="25.8984375" style="9" customWidth="1"/>
     <col min="11" max="26" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:26" s="37" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
-    </row>
-    <row r="2" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+    </row>
+    <row r="2" spans="1:26" s="37" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+    </row>
+    <row r="3" spans="1:26" s="37" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
-    </row>
-    <row r="4" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="41" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+    </row>
+    <row r="4" spans="1:26" s="37" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="41">
         <v>19110067</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="42" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="1:26" s="37" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="41">
         <v>19110007</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
-    </row>
-    <row r="6" spans="1:26" s="40" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
-    </row>
-    <row r="7" spans="1:26" s="3" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:26" s="37" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="1:26" s="3" customFormat="1" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1423,55 +1438,55 @@
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+    <row r="8" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="54">
+      <c r="F8" s="11"/>
+      <c r="G8" s="51">
         <v>44442</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="51">
         <v>44446</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="52">
         <v>44442</v>
       </c>
-      <c r="J8" s="35"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1489,42 +1504,54 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
         <v>2</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>20</v>
+      <c r="B9" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="56">
+      <c r="E9" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="64">
+        <v>44446</v>
+      </c>
+      <c r="H9" s="64">
+        <v>44446</v>
+      </c>
+      <c r="I9" s="64"/>
+      <c r="J9" s="61"/>
+    </row>
+    <row r="10" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>3</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="53">
         <v>44447</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H10" s="53">
         <v>44450</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="34"/>
-    </row>
-    <row r="10" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="32"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="31"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1543,21 +1570,33 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>4</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="33"/>
+      <c r="B11" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="25">
+        <v>44440</v>
+      </c>
+      <c r="H11" s="25">
+        <v>44480</v>
+      </c>
+      <c r="I11" s="59">
+        <v>44442</v>
+      </c>
+      <c r="J11" s="28"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1576,48 +1615,80 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="26">
         <v>5</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="20"/>
+      <c r="B12" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="25">
+        <v>44480</v>
+      </c>
+      <c r="H12" s="25">
+        <v>44490</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="26">
         <v>6</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="B13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="25">
+        <v>44490</v>
+      </c>
+      <c r="H13" s="25">
+        <v>44499</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
         <v>7</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="20"/>
+      <c r="B14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="25">
+        <v>44499</v>
+      </c>
+      <c r="H14" s="25">
+        <v>44505</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1635,19 +1706,21 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <v>8</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="20"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1665,19 +1738,19 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
         <v>9</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="20"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1695,19 +1768,19 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>10</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="20"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1725,19 +1798,19 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="18" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
         <v>11</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="20"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1756,34 +1829,32 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="26">
         <v>12</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="B19" s="29"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
         <v>13</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="20"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1801,21 +1872,21 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+    <row r="21" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>14</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="20"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1833,21 +1904,21 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="22" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
         <v>15</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="13" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="17"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1865,21 +1936,21 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="23" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
         <v>16</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="20"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1897,21 +1968,21 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+    <row r="24" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
         <v>17</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="20"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1929,21 +2000,21 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" s="8" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+    <row r="25" spans="1:26" s="6" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <v>18</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="20"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1961,19 +2032,21 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+    <row r="26" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
         <v>19</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="31"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1991,19 +2064,19 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+    <row r="27" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
         <v>20</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="31"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2021,19 +2094,19 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="21"/>
+    <row r="28" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>21</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2051,6 +2124,20 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
+    <row r="29" spans="1:26" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26">
+        <v>22</v>
+      </c>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
